--- a/psychometric_scale/stuff/IDSSR30.xlsx
+++ b/psychometric_scale/stuff/IDSSR30.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/David/Library/Mobile Documents/com~apple~CloudDocs/*DOCUMENTS*/* INTERNAT PSYCHIATRIE/*RECHERCHE/CONHECT/*AQ MATLAB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/David/Desktop/psychometric_scale/stuff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{58B54038-4E18-AB44-A06D-46A851A08B65}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{EB92DE28-3BF8-7249-A7AC-F29B5DFA3814}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="460" windowWidth="27600" windowHeight="17040" xr2:uid="{2F077A07-062A-7B4D-A282-C588846083CD}"/>
+    <workbookView xWindow="820" yWindow="460" windowWidth="27600" windowHeight="17040" activeTab="1" xr2:uid="{2F077A07-062A-7B4D-A282-C588846083CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="153">
   <si>
     <t>0. Je ne mets jamais plus de 30 minutes à m'endormir.</t>
   </si>
@@ -325,12 +325,6 @@
     <t>3. Je suis triste mais cette tristesse est différente de celle que je ressentirais si l'un de mes proches mourait ou me quittait.</t>
   </si>
   <si>
-    <t>3. Je mange rarement au cours d'une période de 24 heures et seulement au prix de très gros efforts ou lorsqu'on m'en persuade.</t>
-  </si>
-  <si>
-    <t>3. J'ai perdu 2,5 kg ou plus.</t>
-  </si>
-  <si>
     <t>3. Je suis incapable de me concentrer suffisamment pour lire ou je suis incapable de prendre une décision même peu importante.</t>
   </si>
   <si>
@@ -379,24 +373,6 @@
     <t>3. J'ai la sensation physique d'être lesté de plomb et d'être sans énergie la plupart du temps, plusieurs heures par jour, plusieurs jours par semaine.</t>
   </si>
   <si>
-    <t>4. J'éprouve le besoin de manger plus souvent que d'habitude.</t>
-  </si>
-  <si>
-    <t>5. Je mange régulièrement plus souvent et/ou en plus grandes quantités que d'habitude.</t>
-  </si>
-  <si>
-    <t>6. Je me sens poussé à trop manger pendant et entre les repas.</t>
-  </si>
-  <si>
-    <t>4. J'ai l'impression d'avoir un peu grossi.</t>
-  </si>
-  <si>
-    <t>5. J'ai pris 1 kg ou plus.</t>
-  </si>
-  <si>
-    <t>6. J'ai pris 2,5 kg ou plus.</t>
-  </si>
-  <si>
     <t>1. Endormissement (au cours des sept derniers jours) :</t>
   </si>
   <si>
@@ -433,12 +409,6 @@
     <t>10. Qualité de l'humeur (au cours des sept derniers jours) :</t>
   </si>
   <si>
-    <t>11. Diminution ou augmentation de l'appétit (au cours des sept derniers jours) :</t>
-  </si>
-  <si>
-    <t>13. Au cours des deux semaines qui viennent de s'écouler (au cours des sept derniers jours) :</t>
-  </si>
-  <si>
     <t>15. Concentration et capacité de prise de décision (au cours des sept derniers jours) :</t>
   </si>
   <si>
@@ -485,6 +455,36 @@
   </si>
   <si>
     <t>30. Inertie/énergie physique (au cours des sept derniers jours) :</t>
+  </si>
+  <si>
+    <t>1. J'éprouve le besoin de manger plus souvent que d'habitude.</t>
+  </si>
+  <si>
+    <t>2.. Je mange régulièrement plus souvent et/ou en plus grandes quantités que d'habitude.</t>
+  </si>
+  <si>
+    <t>3. Je me sens poussé à trop manger pendant et entre les repas.</t>
+  </si>
+  <si>
+    <t>11. Diminution de l'appétit (au cours des sept derniers jours) :</t>
+  </si>
+  <si>
+    <t>13. Au cours des deux semaines qui viennent de s'écouler :</t>
+  </si>
+  <si>
+    <t>1. J'ai l'impression d'avoir un peu grossi.</t>
+  </si>
+  <si>
+    <t>2. J'ai pris 1 kg ou plus.</t>
+  </si>
+  <si>
+    <t>3. J'ai pris 2,5 kg ou plus.</t>
+  </si>
+  <si>
+    <t>3. Je mange rarement au cours d'une période de 24 heures et seulement au prix de très gros efforts ou lorsqu'on m'en persuade. \n \n \n 12. Augmentation de l'appétit (au cours des sept derniers jours) :</t>
+  </si>
+  <si>
+    <t>3. J'ai perdu 2,5 kg ou plus. \n \n \n 14. Au cours des deux semaines qui viennent de s'écouler :</t>
   </si>
 </sst>
 </file>
@@ -841,160 +841,160 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2ACBDCC-FE18-444E-A3C4-3364AE862CCA}">
   <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1004,15 +1004,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06322A32-23B7-6646-B3C6-B34B0850A9EC}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,7 +1160,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1185,19 +1185,22 @@
         <v>71</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1208,19 +1211,22 @@
         <v>72</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1231,10 +1237,10 @@
         <v>73</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1245,7 +1251,7 @@
         <v>74</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1259,7 +1265,7 @@
         <v>75</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1273,7 +1279,7 @@
         <v>76</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1287,7 +1293,7 @@
         <v>77</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1301,7 +1307,7 @@
         <v>78</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1315,7 +1321,7 @@
         <v>79</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1329,7 +1335,7 @@
         <v>80</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1343,7 +1349,7 @@
         <v>81</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1357,7 +1363,7 @@
         <v>82</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1371,7 +1377,7 @@
         <v>83</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1385,7 +1391,7 @@
         <v>84</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1399,7 +1405,7 @@
         <v>85</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1413,7 +1419,7 @@
         <v>86</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1427,7 +1433,7 @@
         <v>87</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1441,7 +1447,7 @@
         <v>88</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
